--- a/biology/Zoologie/Cyclosa/Cyclosa.xlsx
+++ b/biology/Zoologie/Cyclosa/Cyclosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclosa est un genre d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclosa est un genre d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur tous les continents sauf aux pôles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur tous les continents sauf aux pôles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des espèces de ce genre décorent leurs toiles de motifs de soie ou d'objets divers, parfois pour écarter leurs prédateurs[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces de ce genre décorent leurs toiles de motifs de soie ou d'objets divers, parfois pour écarter leurs prédateurs.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 24.5, 15/10/2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 24.5, 15/10/2023) :
 Cyclosa alayoni Levi, 1999
 Cyclosa alba Tanikawa, 1992
 Cyclosa albisternis Simon, 1888
@@ -778,11 +796,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Menge en 1866.
-Turckheimia O. Pickard-Cambridge, 1889, préoccupé par Turckheimia Dewitz, 1881, a été placé en synonymie par F. O. Pickard-Cambridge en 1904[3].
-Parazygia[4] a été placé en synonymie par Levi en 1977[5].
+Turckheimia O. Pickard-Cambridge, 1889, préoccupé par Turckheimia Dewitz, 1881, a été placé en synonymie par F. O. Pickard-Cambridge en 1904.
+Parazygia a été placé en synonymie par Levi en 1977.
 </t>
         </is>
       </c>
@@ -811,7 +831,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Menge, 1866 : « Preussische Spinnen. Erste Abtheilung. » Schriften der Naturforschenden Gesellschaft in Danzig, (N.F.) vol. 1, p. 1-152 (texte intégral).</t>
         </is>
